--- a/public/import/Catproducto.xlsx
+++ b/public/import/Catproducto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\tienda\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093FDB20-8A42-40D5-BDDF-C9C0B8F0466F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E2216-077E-4DC3-B5EF-459163B5D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{190431D2-E99E-4CC8-9814-26C255DEA302}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Modulo</t>
   </si>
@@ -40,6 +40,54 @@
   </si>
   <si>
     <t>ÚTILES DE OFICINA</t>
+  </si>
+  <si>
+    <t>MATERIA PRIMA</t>
+  </si>
+  <si>
+    <t>INSUMOS PROCESO</t>
+  </si>
+  <si>
+    <t>INDUMENTARIA</t>
+  </si>
+  <si>
+    <t>INSUMOS QUÍMICOS</t>
+  </si>
+  <si>
+    <t>INSUMOS LIMPIEZA</t>
+  </si>
+  <si>
+    <t>ÚTILES EXPORTACIONES</t>
+  </si>
+  <si>
+    <t>INSUMOS MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD</t>
+  </si>
+  <si>
+    <t>FAJAS</t>
+  </si>
+  <si>
+    <t>GASFITERIA</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS</t>
+  </si>
+  <si>
+    <t>LAMINADORA</t>
+  </si>
+  <si>
+    <t>PERNOS</t>
+  </si>
+  <si>
+    <t>REFRIGERACIÓN</t>
+  </si>
+  <si>
+    <t>RETENES</t>
+  </si>
+  <si>
+    <t>RODAMIENTOS</t>
   </si>
 </sst>
 </file>
@@ -418,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C291EB2-B0B0-413C-9899-EF0DCE462065}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A4" sqref="A4:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +496,135 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
